--- a/testabc.xlsx
+++ b/testabc.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Downloads/thuis/python-ntust-202110/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C6BB7-6667-E940-ADA4-79A02B598357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23920" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -925,12 +931,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -938,7 +944,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -948,6 +954,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -997,16 +1010,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1048,7 +1069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1080,9 +1101,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1114,6 +1153,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1289,12 +1346,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="51.59765625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="34.3984375" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
@@ -1316,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1336,10 +1401,10 @@
         <v>152</v>
       </c>
       <c r="G2">
-        <v>2230.769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2230.7689999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1362,7 +1427,7 @@
         <v>1538.462</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1385,7 +1450,7 @@
         <v>1526.316</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1405,10 +1470,10 @@
         <v>155</v>
       </c>
       <c r="G5">
-        <v>1666.667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1666.6669999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1428,10 +1493,10 @@
         <v>156</v>
       </c>
       <c r="G6">
-        <v>1866.667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1866.6669999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1451,10 +1516,10 @@
         <v>157</v>
       </c>
       <c r="G7">
-        <v>833.333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>833.33299999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1477,7 +1542,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1500,7 +1565,7 @@
         <v>1936.62</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1520,10 +1585,10 @@
         <v>160</v>
       </c>
       <c r="G10">
-        <v>1714.286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1714.2860000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1546,7 +1611,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1569,7 +1634,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1577,7 +1642,7 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D13">
         <v>50000</v>
@@ -1592,7 +1657,7 @@
         <v>2958.58</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1612,10 +1677,10 @@
         <v>164</v>
       </c>
       <c r="G14">
-        <v>3214.286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>3214.2860000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1638,7 +1703,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1658,10 +1723,10 @@
         <v>166</v>
       </c>
       <c r="G16">
-        <v>1466.667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1466.6669999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1684,7 +1749,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1704,10 +1769,10 @@
         <v>168</v>
       </c>
       <c r="G18">
-        <v>2058.765</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>2058.7649999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1727,10 +1792,10 @@
         <v>169</v>
       </c>
       <c r="G19">
-        <v>2605.042</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>2605.0419999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1753,7 +1818,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1773,10 +1838,10 @@
         <v>171</v>
       </c>
       <c r="G21">
-        <v>1879.699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1879.6990000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1796,10 +1861,10 @@
         <v>172</v>
       </c>
       <c r="G22">
-        <v>2615.385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>2615.3850000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1822,7 +1887,7 @@
         <v>2187.692</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1845,7 +1910,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1865,10 +1930,10 @@
         <v>175</v>
       </c>
       <c r="G25">
-        <v>2923.077</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>2923.0770000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1888,10 +1953,10 @@
         <v>176</v>
       </c>
       <c r="G26">
-        <v>2091.503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>2091.5030000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1914,7 +1979,7 @@
         <v>2516.556</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1934,10 +1999,10 @@
         <v>178</v>
       </c>
       <c r="G28">
-        <v>1888.889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>1888.8889999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1960,7 +2025,7 @@
         <v>2272.636</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1983,7 +2048,7 @@
         <v>2272.636</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2006,7 +2071,7 @@
         <v>1923.077</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2026,10 +2091,10 @@
         <v>182</v>
       </c>
       <c r="G32">
-        <v>2260.274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>2260.2739999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2052,7 +2117,7 @@
         <v>2532.895</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2072,10 +2137,10 @@
         <v>184</v>
       </c>
       <c r="G34">
-        <v>1977.612</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1977.6120000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2098,7 +2163,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2121,7 +2186,7 @@
         <v>1960.396</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2141,10 +2206,10 @@
         <v>187</v>
       </c>
       <c r="G37">
-        <v>1710.526</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>1710.5260000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2167,7 +2232,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2190,7 +2255,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2210,10 +2275,10 @@
         <v>190</v>
       </c>
       <c r="G40">
-        <v>2266.667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>2266.6669999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2236,7 +2301,7 @@
         <v>1953.125</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2256,10 +2321,10 @@
         <v>192</v>
       </c>
       <c r="G42">
-        <v>2285.714</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>2285.7139999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2282,7 +2347,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2302,10 +2367,10 @@
         <v>194</v>
       </c>
       <c r="G44">
-        <v>1666.667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>1666.6669999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2328,7 +2393,7 @@
         <v>2620.69</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2351,7 +2416,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2374,7 +2439,7 @@
         <v>1076.923</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2397,7 +2462,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2417,10 +2482,10 @@
         <v>199</v>
       </c>
       <c r="G49">
-        <v>1666.667</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>1666.6669999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2443,7 +2508,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2463,10 +2528,10 @@
         <v>201</v>
       </c>
       <c r="G51">
-        <v>1666.667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>1666.6669999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2489,7 +2554,7 @@
         <v>2129.63</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2509,10 +2574,10 @@
         <v>203</v>
       </c>
       <c r="G53">
-        <v>2205.077</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>2205.0770000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2535,7 +2600,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2555,10 +2620,10 @@
         <v>205</v>
       </c>
       <c r="G55">
-        <v>1724.638</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>1724.6379999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2578,10 +2643,10 @@
         <v>206</v>
       </c>
       <c r="G56">
-        <v>2266.667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>2266.6669999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2604,7 +2669,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2624,10 +2689,10 @@
         <v>208</v>
       </c>
       <c r="G58">
-        <v>1074.074</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>1074.0740000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2650,7 +2715,7 @@
         <v>2187.5</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2673,7 +2738,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2693,10 +2758,10 @@
         <v>211</v>
       </c>
       <c r="G61">
-        <v>2133.333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>2133.3330000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2719,7 +2784,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2727,7 +2792,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D63">
         <v>29999</v>
@@ -2742,7 +2807,7 @@
         <v>1546.34</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2762,10 +2827,10 @@
         <v>214</v>
       </c>
       <c r="G64">
-        <v>1333.333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>1333.3330000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2788,7 +2853,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" ht="15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2811,7 +2876,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" ht="15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2831,10 +2896,10 @@
         <v>217</v>
       </c>
       <c r="G67">
-        <v>1981.132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>1981.1320000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2854,10 +2919,10 @@
         <v>218</v>
       </c>
       <c r="G68">
-        <v>2333.333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>2333.3330000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2880,7 +2945,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2903,7 +2968,7 @@
         <v>2734.375</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" ht="15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2923,10 +2988,10 @@
         <v>221</v>
       </c>
       <c r="G71">
-        <v>1916.667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>1916.6669999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2946,10 +3011,10 @@
         <v>222</v>
       </c>
       <c r="G72">
-        <v>1058.824</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>1058.8240000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2972,7 +3037,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" ht="15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2995,7 +3060,7 @@
         <v>1406.25</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" ht="15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3018,7 +3083,7 @@
         <v>1398.8</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" ht="15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3041,7 +3106,7 @@
         <v>2307.692</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" ht="15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3061,10 +3126,10 @@
         <v>227</v>
       </c>
       <c r="G77">
-        <v>2049.18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>2049.1799999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3087,7 +3152,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" ht="15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3107,10 +3172,10 @@
         <v>229</v>
       </c>
       <c r="G79">
-        <v>2302.632</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>2302.6320000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3118,7 +3183,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D80">
         <v>35000</v>
@@ -3133,7 +3198,7 @@
         <v>1881.72</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" ht="15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3156,7 +3221,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" ht="15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3176,10 +3241,10 @@
         <v>232</v>
       </c>
       <c r="G82">
-        <v>1083.333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>1083.3330000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3199,10 +3264,10 @@
         <v>233</v>
       </c>
       <c r="G83">
-        <v>1666.667</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>1666.6669999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3222,10 +3287,10 @@
         <v>234</v>
       </c>
       <c r="G84">
-        <v>1666.667</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>1666.6669999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3245,10 +3310,10 @@
         <v>235</v>
       </c>
       <c r="G85">
-        <v>2047.619</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>2047.6189999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3256,7 +3321,7 @@
         <v>88</v>
       </c>
       <c r="C86">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D86">
         <v>36000</v>
@@ -3268,10 +3333,10 @@
         <v>236</v>
       </c>
       <c r="G86">
-        <v>1935.484</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>1935.4839999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3294,7 +3359,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" ht="15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3317,7 +3382,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" ht="15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3340,7 +3405,7 @@
         <v>1914.894</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" ht="15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3363,7 +3428,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" ht="15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3386,7 +3451,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" ht="15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3406,10 +3471,10 @@
         <v>242</v>
       </c>
       <c r="G92">
-        <v>1014.286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>1014.2859999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3429,10 +3494,10 @@
         <v>243</v>
       </c>
       <c r="G93">
-        <v>2735.043</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>2735.0430000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3452,10 +3517,10 @@
         <v>244</v>
       </c>
       <c r="G94">
-        <v>2735.043</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>2735.0430000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3463,7 +3528,7 @@
         <v>96</v>
       </c>
       <c r="C95">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D95">
         <v>35000</v>
@@ -3478,7 +3543,7 @@
         <v>1881.72</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" ht="15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3498,10 +3563,10 @@
         <v>246</v>
       </c>
       <c r="G96">
-        <v>1586.667</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>1586.6669999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3521,10 +3586,10 @@
         <v>247</v>
       </c>
       <c r="G97">
-        <v>2782.609</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>2782.6089999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3544,10 +3609,10 @@
         <v>248</v>
       </c>
       <c r="G98">
-        <v>1678.947</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>1678.9469999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3570,7 +3635,7 @@
         <v>2265.547</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" ht="15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3593,7 +3658,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" ht="15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3601,7 +3666,7 @@
         <v>102</v>
       </c>
       <c r="C101">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D101">
         <v>57999</v>
@@ -3616,7 +3681,7 @@
         <v>3602.422</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" ht="15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3639,7 +3704,7 @@
         <v>1879.624</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" ht="15">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3662,7 +3727,7 @@
         <v>4347.826</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" ht="15">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3670,7 +3735,7 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D104">
         <v>34999</v>
@@ -3682,10 +3747,10 @@
         <v>254</v>
       </c>
       <c r="G104">
-        <v>3431.275</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>3431.2750000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3705,10 +3770,10 @@
         <v>255</v>
       </c>
       <c r="G105">
-        <v>2229.236</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>2229.2359999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3716,7 +3781,7 @@
         <v>107</v>
       </c>
       <c r="C106">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D106">
         <v>27000</v>
@@ -3728,10 +3793,10 @@
         <v>256</v>
       </c>
       <c r="G106">
-        <v>2647.059</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>2647.0590000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3751,10 +3816,10 @@
         <v>257</v>
       </c>
       <c r="G107">
-        <v>1879.699</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>1879.6990000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3774,10 +3839,10 @@
         <v>258</v>
       </c>
       <c r="G108">
-        <v>2758.621</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>2758.6210000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3797,10 +3862,10 @@
         <v>259</v>
       </c>
       <c r="G109">
-        <v>1794.872</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>1794.8720000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3820,10 +3885,10 @@
         <v>260</v>
       </c>
       <c r="G110">
-        <v>2727.273</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>2727.2730000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3846,7 +3911,7 @@
         <v>1884.058</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" ht="15">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3866,10 +3931,10 @@
         <v>262</v>
       </c>
       <c r="G112">
-        <v>2091.503</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>2091.5030000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3892,7 +3957,7 @@
         <v>2072.308</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" ht="15">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3915,7 +3980,7 @@
         <v>3461.462</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" ht="15">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3935,10 +4000,10 @@
         <v>265</v>
       </c>
       <c r="G115">
-        <v>2302.632</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>2302.6320000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3961,7 +4026,7 @@
         <v>2461.538</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" ht="15">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3984,7 +4049,7 @@
         <v>1578.895</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" ht="15">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4004,10 +4069,10 @@
         <v>268</v>
       </c>
       <c r="G118">
-        <v>2213.115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>2213.1149999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4030,7 +4095,7 @@
         <v>3461.462</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" ht="15">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4050,10 +4115,10 @@
         <v>270</v>
       </c>
       <c r="G120">
-        <v>3471.074</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>3471.0740000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4076,7 +4141,7 @@
         <v>2265.547</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" ht="15">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4096,10 +4161,10 @@
         <v>272</v>
       </c>
       <c r="G122">
-        <v>1666.667</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>1666.6669999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4119,10 +4184,10 @@
         <v>273</v>
       </c>
       <c r="G123">
-        <v>2362.545</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>2362.5450000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4142,10 +4207,10 @@
         <v>274</v>
       </c>
       <c r="G124">
-        <v>2201.258</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>2201.2579999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4153,7 +4218,7 @@
         <v>126</v>
       </c>
       <c r="C125">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D125">
         <v>35000</v>
@@ -4168,7 +4233,7 @@
         <v>1902.174</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" ht="15">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4191,7 +4256,7 @@
         <v>2307.692</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" ht="15">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4214,7 +4279,7 @@
         <v>2826.087</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" ht="15">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4237,7 +4302,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" ht="15">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4260,7 +4325,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" ht="15">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4283,7 +4348,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" ht="15">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4303,10 +4368,10 @@
         <v>281</v>
       </c>
       <c r="G131">
-        <v>1136.273</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>1136.2729999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4329,7 +4394,7 @@
         <v>1879.624</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" ht="15">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4337,7 +4402,7 @@
         <v>134</v>
       </c>
       <c r="C133">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D133">
         <v>34999</v>
@@ -4349,10 +4414,10 @@
         <v>283</v>
       </c>
       <c r="G133">
-        <v>3431.275</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>3431.2750000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4375,7 +4440,7 @@
         <v>2826.087</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" ht="15">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4395,10 +4460,10 @@
         <v>285</v>
       </c>
       <c r="G135">
-        <v>3217.391</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>3217.3910000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4421,7 +4486,7 @@
         <v>4347.826</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" ht="15">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4441,10 +4506,10 @@
         <v>287</v>
       </c>
       <c r="G137">
-        <v>2091.503</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>2091.5030000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4467,7 +4532,7 @@
         <v>3461.538</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" ht="15">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4487,10 +4552,10 @@
         <v>289</v>
       </c>
       <c r="G139">
-        <v>2133.333</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>2133.3330000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4510,10 +4575,10 @@
         <v>290</v>
       </c>
       <c r="G140">
-        <v>1113.043</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>1113.0429999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4536,7 +4601,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" ht="15">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4556,10 +4621,10 @@
         <v>292</v>
       </c>
       <c r="G142">
-        <v>1850.746</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>1850.7460000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4579,10 +4644,10 @@
         <v>293</v>
       </c>
       <c r="G143">
-        <v>1698.113</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>1698.1130000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4602,10 +4667,10 @@
         <v>294</v>
       </c>
       <c r="G144">
-        <v>5909.091</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>5909.0910000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4625,10 +4690,10 @@
         <v>295</v>
       </c>
       <c r="G145">
-        <v>4347.754</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>4347.7539999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4651,7 +4716,7 @@
         <v>3499.9</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" ht="15">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4674,7 +4739,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" ht="15">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4697,7 +4762,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" ht="15">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4720,7 +4785,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" ht="15">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4743,7 +4808,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" ht="15">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4767,157 +4832,158 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
-    <hyperlink ref="F59" r:id="rId58"/>
-    <hyperlink ref="F60" r:id="rId59"/>
-    <hyperlink ref="F61" r:id="rId60"/>
-    <hyperlink ref="F62" r:id="rId61"/>
-    <hyperlink ref="F63" r:id="rId62"/>
-    <hyperlink ref="F64" r:id="rId63"/>
-    <hyperlink ref="F65" r:id="rId64"/>
-    <hyperlink ref="F66" r:id="rId65"/>
-    <hyperlink ref="F67" r:id="rId66"/>
-    <hyperlink ref="F68" r:id="rId67"/>
-    <hyperlink ref="F69" r:id="rId68"/>
-    <hyperlink ref="F70" r:id="rId69"/>
-    <hyperlink ref="F71" r:id="rId70"/>
-    <hyperlink ref="F72" r:id="rId71"/>
-    <hyperlink ref="F73" r:id="rId72"/>
-    <hyperlink ref="F74" r:id="rId73"/>
-    <hyperlink ref="F75" r:id="rId74"/>
-    <hyperlink ref="F76" r:id="rId75"/>
-    <hyperlink ref="F77" r:id="rId76"/>
-    <hyperlink ref="F78" r:id="rId77"/>
-    <hyperlink ref="F79" r:id="rId78"/>
-    <hyperlink ref="F80" r:id="rId79"/>
-    <hyperlink ref="F81" r:id="rId80"/>
-    <hyperlink ref="F82" r:id="rId81"/>
-    <hyperlink ref="F83" r:id="rId82"/>
-    <hyperlink ref="F84" r:id="rId83"/>
-    <hyperlink ref="F85" r:id="rId84"/>
-    <hyperlink ref="F86" r:id="rId85"/>
-    <hyperlink ref="F87" r:id="rId86"/>
-    <hyperlink ref="F88" r:id="rId87"/>
-    <hyperlink ref="F89" r:id="rId88"/>
-    <hyperlink ref="F90" r:id="rId89"/>
-    <hyperlink ref="F91" r:id="rId90"/>
-    <hyperlink ref="F92" r:id="rId91"/>
-    <hyperlink ref="F93" r:id="rId92"/>
-    <hyperlink ref="F94" r:id="rId93"/>
-    <hyperlink ref="F95" r:id="rId94"/>
-    <hyperlink ref="F96" r:id="rId95"/>
-    <hyperlink ref="F97" r:id="rId96"/>
-    <hyperlink ref="F98" r:id="rId97"/>
-    <hyperlink ref="F99" r:id="rId98"/>
-    <hyperlink ref="F100" r:id="rId99"/>
-    <hyperlink ref="F101" r:id="rId100"/>
-    <hyperlink ref="F102" r:id="rId101"/>
-    <hyperlink ref="F103" r:id="rId102"/>
-    <hyperlink ref="F104" r:id="rId103"/>
-    <hyperlink ref="F105" r:id="rId104"/>
-    <hyperlink ref="F106" r:id="rId105"/>
-    <hyperlink ref="F107" r:id="rId106"/>
-    <hyperlink ref="F108" r:id="rId107"/>
-    <hyperlink ref="F109" r:id="rId108"/>
-    <hyperlink ref="F110" r:id="rId109"/>
-    <hyperlink ref="F111" r:id="rId110"/>
-    <hyperlink ref="F112" r:id="rId111"/>
-    <hyperlink ref="F113" r:id="rId112"/>
-    <hyperlink ref="F114" r:id="rId113"/>
-    <hyperlink ref="F115" r:id="rId114"/>
-    <hyperlink ref="F116" r:id="rId115"/>
-    <hyperlink ref="F117" r:id="rId116"/>
-    <hyperlink ref="F118" r:id="rId117"/>
-    <hyperlink ref="F119" r:id="rId118"/>
-    <hyperlink ref="F120" r:id="rId119"/>
-    <hyperlink ref="F121" r:id="rId120"/>
-    <hyperlink ref="F122" r:id="rId121"/>
-    <hyperlink ref="F123" r:id="rId122"/>
-    <hyperlink ref="F124" r:id="rId123"/>
-    <hyperlink ref="F125" r:id="rId124"/>
-    <hyperlink ref="F126" r:id="rId125"/>
-    <hyperlink ref="F127" r:id="rId126"/>
-    <hyperlink ref="F128" r:id="rId127"/>
-    <hyperlink ref="F129" r:id="rId128"/>
-    <hyperlink ref="F130" r:id="rId129"/>
-    <hyperlink ref="F131" r:id="rId130"/>
-    <hyperlink ref="F132" r:id="rId131"/>
-    <hyperlink ref="F133" r:id="rId132"/>
-    <hyperlink ref="F134" r:id="rId133"/>
-    <hyperlink ref="F135" r:id="rId134"/>
-    <hyperlink ref="F136" r:id="rId135"/>
-    <hyperlink ref="F137" r:id="rId136"/>
-    <hyperlink ref="F138" r:id="rId137"/>
-    <hyperlink ref="F139" r:id="rId138"/>
-    <hyperlink ref="F140" r:id="rId139"/>
-    <hyperlink ref="F141" r:id="rId140"/>
-    <hyperlink ref="F142" r:id="rId141"/>
-    <hyperlink ref="F143" r:id="rId142"/>
-    <hyperlink ref="F144" r:id="rId143"/>
-    <hyperlink ref="F145" r:id="rId144"/>
-    <hyperlink ref="F146" r:id="rId145"/>
-    <hyperlink ref="F147" r:id="rId146"/>
-    <hyperlink ref="F148" r:id="rId147"/>
-    <hyperlink ref="F149" r:id="rId148"/>
-    <hyperlink ref="F150" r:id="rId149"/>
-    <hyperlink ref="F151" r:id="rId150"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="F132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="F133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="F136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="F137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="F138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="F139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="F140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="F141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="F142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="F143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="F144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="F145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="F146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="F147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="F148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="F149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="F150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="F151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
